--- a/data analysis/Exercise done/6_Data Fit/Candy Factory.xlsx
+++ b/data analysis/Exercise done/6_Data Fit/Candy Factory.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheagraw/Google Drive/training/Data Analysis/Exercise done/6_Data Fit/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290E4B2-5D60-0F46-A6D5-3422EC0EDFAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="0" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="25360" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$6:$A$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$6:$B$21</definedName>
+  </definedNames>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,17 +46,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,6 +67,21 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,16 +106,17 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -110,7 +128,1084 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27197812773403324"/>
+                  <c:y val="-4.78455818022748E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4720</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E073-D34F-8483-5A12560C375D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1231243823"/>
+        <c:axId val="1231857871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1231243823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231857871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1231857871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231243823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156634</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B53FA8-BDF0-AA43-BFD6-669253F2E3A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,169 +1529,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="158" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B6" s="1">
         <v>10159</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B7" s="1">
         <v>10006</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="B8" s="1">
         <v>8990</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B9" s="1">
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B10" s="1">
         <v>7698</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B11" s="1">
         <v>7209</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B12" s="1">
         <v>6335</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B13" s="1">
         <v>5747</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B14" s="1">
         <v>4932</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B15" s="1">
         <v>4913</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B16" s="1">
         <v>4441</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B17" s="1">
         <v>4720</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B18" s="1">
         <v>2361</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>26</v>
       </c>
-      <c r="B23">
+      <c r="B19" s="1">
         <v>1544</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B20" s="1">
         <v>1952</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>30</v>
       </c>
-      <c r="B25">
+      <c r="B21" s="1">
         <v>906</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
